--- a/data/trans_bre/P31_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,74</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>22,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>17,71</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,6%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>30,87%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23,03%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,41; 21,79</t>
+          <t>7,04; 20,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 13,21</t>
+          <t>-0,21; 11,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 31,92</t>
+          <t>12,84; 31,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 28,55</t>
+          <t>13,1; 32,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 15,92</t>
+          <t>4,26; 22,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,11; 51,81</t>
+          <t>9,13; 28,23</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 26,25</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 13,53</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16,61; 50,52</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,27; 51,28</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 30,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 42,51</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,94%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 10,91</t>
+          <t>0,58; 11,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 12,91</t>
+          <t>4,27; 13,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 17,79</t>
+          <t>6,63; 18,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 12,6</t>
+          <t>-0,82; 14,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 15,05</t>
+          <t>3,7; 18,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 22,06</t>
+          <t>0,61; 11,83</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 13,18</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 16,59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 23,44</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 17,78</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 24,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 13,86</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>8,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -802,32 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,5</t>
+          <t>2,13; 11,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 12,15</t>
+          <t>5,32; 12,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,68; 14,54</t>
+          <t>4,69; 14,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 12,09</t>
+          <t>3,31; 18,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 14,05</t>
+          <t>3,96; 13,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 17,73</t>
+          <t>-0,04; 7,99</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 13,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 14,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 17,55</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 22,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 16,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 8,77</t>
         </is>
       </c>
     </row>
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>5,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>4,25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
         </is>
       </c>
     </row>
@@ -882,32 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,78</t>
+          <t>1,71; 9,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,33</t>
+          <t>0,72; 6,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,23</t>
+          <t>3,36; 10,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,9</t>
+          <t>2,22; 9,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 6,85</t>
+          <t>0,92; 8,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 11,69</t>
+          <t>1,36; 7,98</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 11,07</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 7,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 12,53</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 10,38</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 9,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 8,68</t>
         </is>
       </c>
     </row>
@@ -924,32 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,73</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 5,55</t>
+          <t>-1,05; 6,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 9,77</t>
+          <t>0,38; 11,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,99</t>
+          <t>-0,48; 4,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 5,99</t>
+          <t>1,57; 11,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 10,98</t>
+          <t>0,28; 5,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 4,18</t>
+          <t>-0,48; 4,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 7,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 12,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 4,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 13,53</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 6,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,48; 4,67</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,38%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,8</t>
+          <t>0,52; 5,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,76</t>
+          <t>-1,71; 0,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 5,22</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,3</t>
+          <t>0,63; 5,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 0,76</t>
+          <t>0,55; 5,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,52</t>
+          <t>0,55; 4,82</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 5,59</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 0,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 5,96</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 6,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 5,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 5,07</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>8,34</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
         </is>
       </c>
     </row>
@@ -1122,47 +1560,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,91</t>
+          <t>4,13; 7,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,6</t>
+          <t>3,59; 6,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,61; 10,98</t>
+          <t>6,81; 11,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,78</t>
+          <t>6,21; 11,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,17</t>
+          <t>5,03; 9,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,68</t>
+          <t>3,63; 7,81</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 8,74</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 7,53</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 12,97</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 13,3</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 10,52</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 8,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
